--- a/Data/Excel/FCFS/11.xlsx
+++ b/Data/Excel/FCFS/11.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>54.72</v>
+        <v>46.95</v>
       </c>
       <c r="C2" t="n">
         <v>-2</v>
@@ -481,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>54.18</v>
+        <v>46.42</v>
       </c>
       <c r="C3" t="n">
         <v>-2</v>
@@ -501,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>53.65</v>
+        <v>45.88</v>
       </c>
       <c r="C4" t="n">
         <v>-2</v>
@@ -521,7 +521,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>53.12</v>
+        <v>45.35</v>
       </c>
       <c r="C5" t="n">
         <v>-2</v>
@@ -541,7 +541,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>52.58</v>
+        <v>44.82</v>
       </c>
       <c r="C6" t="n">
         <v>-2</v>
@@ -561,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>52.05</v>
+        <v>44.28</v>
       </c>
       <c r="C7" t="n">
         <v>-2</v>
@@ -581,7 +581,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>51.52</v>
+        <v>43.75</v>
       </c>
       <c r="C8" t="n">
         <v>-2</v>
@@ -601,7 +601,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>50.98</v>
+        <v>43.22</v>
       </c>
       <c r="C9" t="n">
         <v>-2</v>
@@ -621,7 +621,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>50.45</v>
+        <v>42.68</v>
       </c>
       <c r="C10" t="n">
         <v>-2</v>
@@ -641,7 +641,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>49.92</v>
+        <v>42.15</v>
       </c>
       <c r="C11" t="n">
         <v>-2</v>
@@ -661,7 +661,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>49.38</v>
+        <v>41.62</v>
       </c>
       <c r="C12" t="n">
         <v>-2</v>
@@ -681,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>48.85</v>
+        <v>41.08</v>
       </c>
       <c r="C13" t="n">
         <v>-2</v>
@@ -701,7 +701,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>48.32</v>
+        <v>40.55</v>
       </c>
       <c r="C14" t="n">
         <v>-2</v>
@@ -721,7 +721,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>47.78</v>
+        <v>40.02</v>
       </c>
       <c r="C15" t="n">
         <v>-2</v>
@@ -741,7 +741,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>47.25</v>
+        <v>39.48</v>
       </c>
       <c r="C16" t="n">
         <v>-2</v>
@@ -761,7 +761,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>46.72</v>
+        <v>38.95</v>
       </c>
       <c r="C17" t="n">
         <v>-2</v>
@@ -781,7 +781,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>46.18</v>
+        <v>38.42</v>
       </c>
       <c r="C18" t="n">
         <v>-2</v>
@@ -801,7 +801,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>45.65</v>
+        <v>37.88</v>
       </c>
       <c r="C19" t="n">
         <v>-2</v>
@@ -821,7 +821,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>45.12</v>
+        <v>37.35</v>
       </c>
       <c r="C20" t="n">
         <v>-2</v>
@@ -841,7 +841,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>44.58</v>
+        <v>36.82</v>
       </c>
       <c r="C21" t="n">
         <v>-2</v>
@@ -861,7 +861,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>44.05</v>
+        <v>36.28</v>
       </c>
       <c r="C22" t="n">
         <v>-2</v>
@@ -881,7 +881,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>43.52</v>
+        <v>35.75</v>
       </c>
       <c r="C23" t="n">
         <v>-2</v>
@@ -901,7 +901,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>42.98</v>
+        <v>35.22</v>
       </c>
       <c r="C24" t="n">
         <v>-2</v>
@@ -921,7 +921,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>42.45</v>
+        <v>34.68</v>
       </c>
       <c r="C25" t="n">
         <v>-2</v>
@@ -941,7 +941,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>41.92</v>
+        <v>34.15</v>
       </c>
       <c r="C26" t="n">
         <v>-2</v>
@@ -961,7 +961,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>41.38</v>
+        <v>33.62</v>
       </c>
       <c r="C27" t="n">
         <v>-2</v>
@@ -981,7 +981,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>40.85</v>
+        <v>33.08</v>
       </c>
       <c r="C28" t="n">
         <v>-2</v>
@@ -1001,7 +1001,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>40.32</v>
+        <v>32.55</v>
       </c>
       <c r="C29" t="n">
         <v>-2</v>
@@ -1021,7 +1021,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>39.78</v>
+        <v>32.02</v>
       </c>
       <c r="C30" t="n">
         <v>-2</v>
@@ -1041,7 +1041,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>39.25</v>
+        <v>31.48</v>
       </c>
       <c r="C31" t="n">
         <v>-2</v>
@@ -1061,7 +1061,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>38.72</v>
+        <v>30.95</v>
       </c>
       <c r="C32" t="n">
         <v>-2</v>
@@ -1081,7 +1081,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>38.18</v>
+        <v>30.42</v>
       </c>
       <c r="C33" t="n">
         <v>-2</v>
@@ -1101,7 +1101,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>37.65</v>
+        <v>29.88</v>
       </c>
       <c r="C34" t="n">
         <v>-2</v>
@@ -1121,7 +1121,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>37.12</v>
+        <v>29.35</v>
       </c>
       <c r="C35" t="n">
         <v>-2</v>
@@ -1141,7 +1141,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>36.58</v>
+        <v>28.82</v>
       </c>
       <c r="C36" t="n">
         <v>-2</v>
@@ -1161,7 +1161,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>36.05</v>
+        <v>28.28</v>
       </c>
       <c r="C37" t="n">
         <v>-2</v>
@@ -1181,7 +1181,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>35.52</v>
+        <v>27.75</v>
       </c>
       <c r="C38" t="n">
         <v>-2</v>
@@ -1201,7 +1201,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>34.98</v>
+        <v>27.22</v>
       </c>
       <c r="C39" t="n">
         <v>-2</v>
@@ -1221,7 +1221,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>34.45</v>
+        <v>26.68</v>
       </c>
       <c r="C40" t="n">
         <v>-2</v>
@@ -1241,7 +1241,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>33.92</v>
+        <v>26.15</v>
       </c>
       <c r="C41" t="n">
         <v>-2</v>
@@ -1261,7 +1261,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>33.38</v>
+        <v>25.62</v>
       </c>
       <c r="C42" t="n">
         <v>-2</v>
@@ -1281,7 +1281,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>32.85</v>
+        <v>25.08</v>
       </c>
       <c r="C43" t="n">
         <v>-2</v>
@@ -1301,7 +1301,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>32.32</v>
+        <v>24.55</v>
       </c>
       <c r="C44" t="n">
         <v>-2</v>
@@ -1321,7 +1321,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>31.78</v>
+        <v>24.02</v>
       </c>
       <c r="C45" t="n">
         <v>-2</v>
@@ -1341,7 +1341,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>31.25</v>
+        <v>23.48</v>
       </c>
       <c r="C46" t="n">
         <v>-2</v>
@@ -1361,7 +1361,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>30.72</v>
+        <v>22.95</v>
       </c>
       <c r="C47" t="n">
         <v>-2</v>
@@ -1381,7 +1381,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>30.18</v>
+        <v>22.42</v>
       </c>
       <c r="C48" t="n">
         <v>-2</v>
@@ -1401,7 +1401,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>29.65</v>
+        <v>21.88</v>
       </c>
       <c r="C49" t="n">
         <v>-2</v>
@@ -1421,7 +1421,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>29.12</v>
+        <v>21.35</v>
       </c>
       <c r="C50" t="n">
         <v>-2</v>
@@ -1441,7 +1441,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>28.58</v>
+        <v>20.82</v>
       </c>
       <c r="C51" t="n">
         <v>-2</v>
@@ -1461,7 +1461,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>28.05</v>
+        <v>20.28</v>
       </c>
       <c r="C52" t="n">
         <v>-2</v>
@@ -1481,7 +1481,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>27.52</v>
+        <v>19.75</v>
       </c>
       <c r="C53" t="n">
         <v>-2</v>
@@ -1501,7 +1501,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>26.98</v>
+        <v>19.22</v>
       </c>
       <c r="C54" t="n">
         <v>-2</v>
@@ -1521,7 +1521,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>26.45</v>
+        <v>18.68</v>
       </c>
       <c r="C55" t="n">
         <v>-2</v>
@@ -1541,7 +1541,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>25.92</v>
+        <v>18.15</v>
       </c>
       <c r="C56" t="n">
         <v>-2</v>
@@ -1561,7 +1561,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>25.38</v>
+        <v>17.62</v>
       </c>
       <c r="C57" t="n">
         <v>-2</v>
@@ -1581,7 +1581,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>24.85</v>
+        <v>17.08</v>
       </c>
       <c r="C58" t="n">
         <v>-2</v>
@@ -1601,7 +1601,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>24.32</v>
+        <v>16.55</v>
       </c>
       <c r="C59" t="n">
         <v>-2</v>
@@ -1621,7 +1621,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>23.78</v>
+        <v>16.02</v>
       </c>
       <c r="C60" t="n">
         <v>-2</v>
@@ -1641,7 +1641,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>23.25</v>
+        <v>15.48</v>
       </c>
       <c r="C61" t="n">
         <v>-2</v>
@@ -1661,7 +1661,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>22.72</v>
+        <v>14.95</v>
       </c>
       <c r="C62" t="n">
         <v>-2</v>
@@ -1681,7 +1681,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>22.18</v>
+        <v>14.42</v>
       </c>
       <c r="C63" t="n">
         <v>-2</v>
@@ -1701,7 +1701,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>21.65</v>
+        <v>13.88</v>
       </c>
       <c r="C64" t="n">
         <v>-2</v>
@@ -1721,7 +1721,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>21.12</v>
+        <v>13.35</v>
       </c>
       <c r="C65" t="n">
         <v>-2</v>
@@ -1741,16 +1741,16 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>20.58</v>
+        <v>12.82</v>
       </c>
       <c r="C66" t="n">
-        <v>-2</v>
+        <v>-2.06</v>
       </c>
       <c r="D66" t="n">
         <v>8</v>
       </c>
       <c r="E66" t="n">
-        <v>3.14</v>
+        <v>3.17</v>
       </c>
       <c r="F66" t="b">
         <v>0</v>
@@ -1761,16 +1761,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>20.05</v>
+        <v>12.29</v>
       </c>
       <c r="C67" t="n">
-        <v>-2</v>
+        <v>-2.09</v>
       </c>
       <c r="D67" t="n">
         <v>8</v>
       </c>
       <c r="E67" t="n">
-        <v>3.14</v>
+        <v>3.17</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
@@ -1781,16 +1781,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>19.52</v>
+        <v>11.75</v>
       </c>
       <c r="C68" t="n">
-        <v>-2</v>
+        <v>-2.08</v>
       </c>
       <c r="D68" t="n">
         <v>8</v>
       </c>
       <c r="E68" t="n">
-        <v>3.14</v>
+        <v>3.16</v>
       </c>
       <c r="F68" t="b">
         <v>0</v>
@@ -1801,16 +1801,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>18.98</v>
+        <v>11.22</v>
       </c>
       <c r="C69" t="n">
-        <v>-2</v>
+        <v>-2.05</v>
       </c>
       <c r="D69" t="n">
         <v>8</v>
       </c>
       <c r="E69" t="n">
-        <v>3.14</v>
+        <v>3.15</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>18.45</v>
+        <v>10.69</v>
       </c>
       <c r="C70" t="n">
-        <v>-2</v>
+        <v>-2.01</v>
       </c>
       <c r="D70" t="n">
         <v>8</v>
       </c>
       <c r="E70" t="n">
-        <v>3.14</v>
+        <v>3.13</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
@@ -1841,16 +1841,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>17.92</v>
+        <v>10.16</v>
       </c>
       <c r="C71" t="n">
-        <v>-2</v>
+        <v>-1.94</v>
       </c>
       <c r="D71" t="n">
         <v>8</v>
       </c>
       <c r="E71" t="n">
-        <v>3.14</v>
+        <v>3.1</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
@@ -1861,16 +1861,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>17.38</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>-2</v>
+        <v>-1.85</v>
       </c>
       <c r="D72" t="n">
         <v>8</v>
       </c>
       <c r="E72" t="n">
-        <v>3.14</v>
+        <v>3.08</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
@@ -1881,16 +1881,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>16.85</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>-2</v>
+        <v>-1.74</v>
       </c>
       <c r="D73" t="n">
         <v>8</v>
       </c>
       <c r="E73" t="n">
-        <v>3.14</v>
+        <v>3.05</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>16.32</v>
+        <v>8.59</v>
       </c>
       <c r="C74" t="n">
-        <v>-2</v>
+        <v>-1.62</v>
       </c>
       <c r="D74" t="n">
         <v>8</v>
       </c>
       <c r="E74" t="n">
-        <v>3.14</v>
+        <v>3.02</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
@@ -1921,16 +1921,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>15.78</v>
+        <v>8.08</v>
       </c>
       <c r="C75" t="n">
-        <v>-2</v>
+        <v>-1.48</v>
       </c>
       <c r="D75" t="n">
         <v>8</v>
       </c>
       <c r="E75" t="n">
-        <v>3.14</v>
+        <v>2.99</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -1941,16 +1941,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>15.25</v>
+        <v>7.57</v>
       </c>
       <c r="C76" t="n">
-        <v>-2</v>
+        <v>-1.32</v>
       </c>
       <c r="D76" t="n">
         <v>8</v>
       </c>
       <c r="E76" t="n">
-        <v>3.14</v>
+        <v>2.95</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -1961,16 +1961,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>14.72</v>
+        <v>7.07</v>
       </c>
       <c r="C77" t="n">
-        <v>-2</v>
+        <v>-1.13</v>
       </c>
       <c r="D77" t="n">
         <v>8</v>
       </c>
       <c r="E77" t="n">
-        <v>3.14</v>
+        <v>2.92</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -1981,16 +1981,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>14.18</v>
+        <v>6.58</v>
       </c>
       <c r="C78" t="n">
-        <v>-2</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="D78" t="n">
         <v>8</v>
       </c>
       <c r="E78" t="n">
-        <v>3.14</v>
+        <v>2.89</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>13.65</v>
+        <v>6.09</v>
       </c>
       <c r="C79" t="n">
-        <v>-2</v>
+        <v>-0.72</v>
       </c>
       <c r="D79" t="n">
         <v>8</v>
       </c>
       <c r="E79" t="n">
-        <v>3.14</v>
+        <v>2.85</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
@@ -2021,16 +2021,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>13.12</v>
+        <v>5.61</v>
       </c>
       <c r="C80" t="n">
-        <v>-2</v>
+        <v>-0.48</v>
       </c>
       <c r="D80" t="n">
         <v>8</v>
       </c>
       <c r="E80" t="n">
-        <v>3.14</v>
+        <v>2.82</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -2041,16 +2041,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>12.58</v>
+        <v>5.14</v>
       </c>
       <c r="C81" t="n">
-        <v>-2.05</v>
+        <v>-0.23</v>
       </c>
       <c r="D81" t="n">
         <v>8</v>
       </c>
       <c r="E81" t="n">
-        <v>3.16</v>
+        <v>2.78</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>12.05</v>
+        <v>4.68</v>
       </c>
       <c r="C82" t="n">
-        <v>-2.07</v>
+        <v>0.04</v>
       </c>
       <c r="D82" t="n">
         <v>8</v>
       </c>
       <c r="E82" t="n">
-        <v>3.17</v>
+        <v>2.74</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -2081,16 +2081,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>11.52</v>
+        <v>4.23</v>
       </c>
       <c r="C83" t="n">
-        <v>-2.06</v>
+        <v>0.33</v>
       </c>
       <c r="D83" t="n">
         <v>8</v>
       </c>
       <c r="E83" t="n">
-        <v>3.16</v>
+        <v>2.71</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
@@ -2101,16 +2101,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>10.99</v>
+        <v>3.8</v>
       </c>
       <c r="C84" t="n">
-        <v>-2.02</v>
+        <v>0.64</v>
       </c>
       <c r="D84" t="n">
         <v>8</v>
       </c>
       <c r="E84" t="n">
-        <v>3.14</v>
+        <v>2.67</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -2121,16 +2121,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>10.46</v>
+        <v>3.38</v>
       </c>
       <c r="C85" t="n">
-        <v>-1.97</v>
+        <v>0.97</v>
       </c>
       <c r="D85" t="n">
         <v>8</v>
       </c>
       <c r="E85" t="n">
-        <v>3.12</v>
+        <v>2.63</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -2141,16 +2141,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9.93</v>
+        <v>2.97</v>
       </c>
       <c r="C86" t="n">
-        <v>-1.89</v>
+        <v>1.31</v>
       </c>
       <c r="D86" t="n">
         <v>8</v>
       </c>
       <c r="E86" t="n">
-        <v>3.09</v>
+        <v>2.59</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
@@ -2161,16 +2161,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>9.4</v>
+        <v>2.57</v>
       </c>
       <c r="C87" t="n">
-        <v>-1.8</v>
+        <v>1.66</v>
       </c>
       <c r="D87" t="n">
         <v>8</v>
       </c>
       <c r="E87" t="n">
-        <v>3.06</v>
+        <v>2.55</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
@@ -2181,16 +2181,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>8.880000000000001</v>
+        <v>2.19</v>
       </c>
       <c r="C88" t="n">
-        <v>-1.69</v>
+        <v>2.04</v>
       </c>
       <c r="D88" t="n">
         <v>8</v>
       </c>
       <c r="E88" t="n">
-        <v>3.04</v>
+        <v>2.51</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
@@ -2201,16 +2201,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>8.369999999999999</v>
+        <v>1.82</v>
       </c>
       <c r="C89" t="n">
-        <v>-1.55</v>
+        <v>2.43</v>
       </c>
       <c r="D89" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="E89" t="n">
-        <v>3</v>
+        <v>2.47</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
@@ -2221,16 +2221,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>7.88</v>
+        <v>1.47</v>
       </c>
       <c r="C90" t="n">
-        <v>-1.41</v>
+        <v>2.83</v>
       </c>
       <c r="D90" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="E90" t="n">
-        <v>2.97</v>
+        <v>2.43</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
@@ -2241,18 +2241,278 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>7.46</v>
+        <v>1.14</v>
       </c>
       <c r="C91" t="n">
-        <v>-1.26</v>
+        <v>3.25</v>
       </c>
       <c r="D91" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="E91" t="n">
-        <v>2.95</v>
+        <v>2.39</v>
       </c>
       <c r="F91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C92" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="D92" t="n">
+        <v>8</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="C93" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="D93" t="n">
+        <v>8</v>
+      </c>
+      <c r="E93" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C94" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="D94" t="n">
+        <v>8</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="C95" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="D95" t="n">
+        <v>8</v>
+      </c>
+      <c r="E95" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="C96" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="D96" t="n">
+        <v>8</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="C97" t="n">
+        <v>6</v>
+      </c>
+      <c r="D97" t="n">
+        <v>8</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-0.66</v>
+      </c>
+      <c r="C98" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D98" t="n">
+        <v>8</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-0.84</v>
+      </c>
+      <c r="C99" t="n">
+        <v>7</v>
+      </c>
+      <c r="D99" t="n">
+        <v>8</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C100" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="D100" t="n">
+        <v>8</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-1.13</v>
+      </c>
+      <c r="C101" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="D101" t="n">
+        <v>8</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="F101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-1.24</v>
+      </c>
+      <c r="C102" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="D102" t="n">
+        <v>8</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-1.34</v>
+      </c>
+      <c r="C103" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="D103" t="n">
+        <v>8</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-1.35</v>
+      </c>
+      <c r="C104" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="D104" t="n">
+        <v>8</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="F104" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2267,7 +2527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2315,7 +2575,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>60.06</v>
+        <v>54.14</v>
       </c>
       <c r="D2" t="n">
         <v>9.890000000000001</v>
@@ -2335,7 +2595,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>59.4</v>
+        <v>53.49</v>
       </c>
       <c r="D3" t="n">
         <v>9.789999999999999</v>
@@ -2355,7 +2615,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>58.75</v>
+        <v>52.83</v>
       </c>
       <c r="D4" t="n">
         <v>9.699999999999999</v>
@@ -2375,7 +2635,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>58.1</v>
+        <v>52.19</v>
       </c>
       <c r="D5" t="n">
         <v>9.619999999999999</v>
@@ -2395,7 +2655,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>57.46</v>
+        <v>51.54</v>
       </c>
       <c r="D6" t="n">
         <v>9.550000000000001</v>
@@ -2415,7 +2675,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>56.83</v>
+        <v>50.91</v>
       </c>
       <c r="D7" t="n">
         <v>9.49</v>
@@ -2435,7 +2695,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>56.19</v>
+        <v>50.27</v>
       </c>
       <c r="D8" t="n">
         <v>9.44</v>
@@ -2455,7 +2715,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>55.56</v>
+        <v>49.64</v>
       </c>
       <c r="D9" t="n">
         <v>9.390000000000001</v>
@@ -2475,7 +2735,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>54.94</v>
+        <v>49.02</v>
       </c>
       <c r="D10" t="n">
         <v>9.35</v>
@@ -2495,7 +2755,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>54.31</v>
+        <v>48.4</v>
       </c>
       <c r="D11" t="n">
         <v>9.31</v>
@@ -2515,7 +2775,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>53.69</v>
+        <v>47.78</v>
       </c>
       <c r="D12" t="n">
         <v>9.27</v>
@@ -2535,7 +2795,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>53.08</v>
+        <v>47.16</v>
       </c>
       <c r="D13" t="n">
         <v>9.24</v>
@@ -2555,7 +2815,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>52.46</v>
+        <v>46.54</v>
       </c>
       <c r="D14" t="n">
         <v>9.220000000000001</v>
@@ -2575,7 +2835,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>51.84</v>
+        <v>45.93</v>
       </c>
       <c r="D15" t="n">
         <v>9.19</v>
@@ -2595,7 +2855,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>51.23</v>
+        <v>45.31</v>
       </c>
       <c r="D16" t="n">
         <v>9.17</v>
@@ -2615,7 +2875,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>50.62</v>
+        <v>44.7</v>
       </c>
       <c r="D17" t="n">
         <v>9.15</v>
@@ -2635,7 +2895,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>50.01</v>
+        <v>44.09</v>
       </c>
       <c r="D18" t="n">
         <v>9.140000000000001</v>
@@ -2655,7 +2915,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>49.4</v>
+        <v>43.48</v>
       </c>
       <c r="D19" t="n">
         <v>9.119999999999999</v>
@@ -2675,7 +2935,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>48.79</v>
+        <v>42.87</v>
       </c>
       <c r="D20" t="n">
         <v>9.109999999999999</v>
@@ -2695,7 +2955,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>48.19</v>
+        <v>42.27</v>
       </c>
       <c r="D21" t="n">
         <v>9.09</v>
@@ -2715,7 +2975,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="n">
-        <v>47.58</v>
+        <v>41.66</v>
       </c>
       <c r="D22" t="n">
         <v>9.08</v>
@@ -2735,7 +2995,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97</v>
+        <v>41.06</v>
       </c>
       <c r="D23" t="n">
         <v>9.07</v>
@@ -2755,7 +3015,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="n">
-        <v>46.37</v>
+        <v>40.45</v>
       </c>
       <c r="D24" t="n">
         <v>9.07</v>
@@ -2775,7 +3035,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>45.77</v>
+        <v>39.85</v>
       </c>
       <c r="D25" t="n">
         <v>9.06</v>
@@ -2795,7 +3055,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>45.16</v>
+        <v>39.24</v>
       </c>
       <c r="D26" t="n">
         <v>9.050000000000001</v>
@@ -2815,7 +3075,7 @@
         <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>44.56</v>
+        <v>38.64</v>
       </c>
       <c r="D27" t="n">
         <v>9.050000000000001</v>
@@ -2835,7 +3095,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>43.95</v>
+        <v>38.04</v>
       </c>
       <c r="D28" t="n">
         <v>9.039999999999999</v>
@@ -2855,7 +3115,7 @@
         <v>2</v>
       </c>
       <c r="C29" t="n">
-        <v>43.35</v>
+        <v>37.43</v>
       </c>
       <c r="D29" t="n">
         <v>9.039999999999999</v>
@@ -2875,7 +3135,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>42.75</v>
+        <v>36.83</v>
       </c>
       <c r="D30" t="n">
         <v>9.029999999999999</v>
@@ -2895,7 +3155,7 @@
         <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>42.15</v>
+        <v>36.23</v>
       </c>
       <c r="D31" t="n">
         <v>9.029999999999999</v>
@@ -2915,7 +3175,7 @@
         <v>2</v>
       </c>
       <c r="C32" t="n">
-        <v>41.55</v>
+        <v>35.63</v>
       </c>
       <c r="D32" t="n">
         <v>9.029999999999999</v>
@@ -2935,7 +3195,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>40.94</v>
+        <v>35.02</v>
       </c>
       <c r="D33" t="n">
         <v>9.02</v>
@@ -2955,7 +3215,7 @@
         <v>2</v>
       </c>
       <c r="C34" t="n">
-        <v>40.34</v>
+        <v>34.42</v>
       </c>
       <c r="D34" t="n">
         <v>9.02</v>
@@ -2975,7 +3235,7 @@
         <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>39.74</v>
+        <v>33.82</v>
       </c>
       <c r="D35" t="n">
         <v>9.02</v>
@@ -2995,7 +3255,7 @@
         <v>2</v>
       </c>
       <c r="C36" t="n">
-        <v>39.14</v>
+        <v>33.22</v>
       </c>
       <c r="D36" t="n">
         <v>9.02</v>
@@ -3015,7 +3275,7 @@
         <v>2</v>
       </c>
       <c r="C37" t="n">
-        <v>38.54</v>
+        <v>32.62</v>
       </c>
       <c r="D37" t="n">
         <v>9.01</v>
@@ -3035,7 +3295,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>37.94</v>
+        <v>32.02</v>
       </c>
       <c r="D38" t="n">
         <v>9.01</v>
@@ -3055,7 +3315,7 @@
         <v>2</v>
       </c>
       <c r="C39" t="n">
-        <v>37.34</v>
+        <v>31.42</v>
       </c>
       <c r="D39" t="n">
         <v>9.01</v>
@@ -3075,7 +3335,7 @@
         <v>2</v>
       </c>
       <c r="C40" t="n">
-        <v>36.74</v>
+        <v>30.82</v>
       </c>
       <c r="D40" t="n">
         <v>9.01</v>
@@ -3095,7 +3355,7 @@
         <v>2</v>
       </c>
       <c r="C41" t="n">
-        <v>36.14</v>
+        <v>30.22</v>
       </c>
       <c r="D41" t="n">
         <v>9.01</v>
@@ -3115,7 +3375,7 @@
         <v>2</v>
       </c>
       <c r="C42" t="n">
-        <v>35.53</v>
+        <v>29.62</v>
       </c>
       <c r="D42" t="n">
         <v>9.01</v>
@@ -3135,7 +3395,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>34.93</v>
+        <v>29.02</v>
       </c>
       <c r="D43" t="n">
         <v>9.01</v>
@@ -3155,7 +3415,7 @@
         <v>2</v>
       </c>
       <c r="C44" t="n">
-        <v>34.33</v>
+        <v>28.41</v>
       </c>
       <c r="D44" t="n">
         <v>9.01</v>
@@ -3175,7 +3435,7 @@
         <v>2</v>
       </c>
       <c r="C45" t="n">
-        <v>33.73</v>
+        <v>27.81</v>
       </c>
       <c r="D45" t="n">
         <v>9.01</v>
@@ -3195,7 +3455,7 @@
         <v>2</v>
       </c>
       <c r="C46" t="n">
-        <v>33.13</v>
+        <v>27.21</v>
       </c>
       <c r="D46" t="n">
         <v>9</v>
@@ -3215,7 +3475,7 @@
         <v>2</v>
       </c>
       <c r="C47" t="n">
-        <v>32.53</v>
+        <v>26.61</v>
       </c>
       <c r="D47" t="n">
         <v>9</v>
@@ -3235,7 +3495,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>31.93</v>
+        <v>26.01</v>
       </c>
       <c r="D48" t="n">
         <v>9</v>
@@ -3255,7 +3515,7 @@
         <v>2</v>
       </c>
       <c r="C49" t="n">
-        <v>31.33</v>
+        <v>25.41</v>
       </c>
       <c r="D49" t="n">
         <v>9</v>
@@ -3275,7 +3535,7 @@
         <v>2</v>
       </c>
       <c r="C50" t="n">
-        <v>30.73</v>
+        <v>24.81</v>
       </c>
       <c r="D50" t="n">
         <v>9</v>
@@ -3295,7 +3555,7 @@
         <v>2</v>
       </c>
       <c r="C51" t="n">
-        <v>30.13</v>
+        <v>24.21</v>
       </c>
       <c r="D51" t="n">
         <v>9</v>
@@ -3315,7 +3575,7 @@
         <v>2</v>
       </c>
       <c r="C52" t="n">
-        <v>29.53</v>
+        <v>23.61</v>
       </c>
       <c r="D52" t="n">
         <v>9</v>
@@ -3335,7 +3595,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>28.93</v>
+        <v>23.01</v>
       </c>
       <c r="D53" t="n">
         <v>9</v>
@@ -3355,7 +3615,7 @@
         <v>2</v>
       </c>
       <c r="C54" t="n">
-        <v>28.33</v>
+        <v>22.41</v>
       </c>
       <c r="D54" t="n">
         <v>9</v>
@@ -3375,7 +3635,7 @@
         <v>2</v>
       </c>
       <c r="C55" t="n">
-        <v>27.73</v>
+        <v>21.81</v>
       </c>
       <c r="D55" t="n">
         <v>9</v>
@@ -3395,7 +3655,7 @@
         <v>2</v>
       </c>
       <c r="C56" t="n">
-        <v>27.13</v>
+        <v>21.21</v>
       </c>
       <c r="D56" t="n">
         <v>9</v>
@@ -3415,7 +3675,7 @@
         <v>2</v>
       </c>
       <c r="C57" t="n">
-        <v>26.53</v>
+        <v>20.61</v>
       </c>
       <c r="D57" t="n">
         <v>9</v>
@@ -3435,10 +3695,10 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>25.93</v>
+        <v>20.01</v>
       </c>
       <c r="D58" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="E58" t="n">
         <v>-1.57</v>
@@ -3455,10 +3715,10 @@
         <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>25.33</v>
+        <v>19.44</v>
       </c>
       <c r="D59" t="n">
-        <v>9</v>
+        <v>8.06</v>
       </c>
       <c r="E59" t="n">
         <v>-1.57</v>
@@ -3475,10 +3735,10 @@
         <v>2</v>
       </c>
       <c r="C60" t="n">
-        <v>24.73</v>
+        <v>18.91</v>
       </c>
       <c r="D60" t="n">
-        <v>9</v>
+        <v>7.66</v>
       </c>
       <c r="E60" t="n">
         <v>-1.57</v>
@@ -3495,10 +3755,10 @@
         <v>2</v>
       </c>
       <c r="C61" t="n">
-        <v>24.13</v>
+        <v>18.4</v>
       </c>
       <c r="D61" t="n">
-        <v>9</v>
+        <v>7.31</v>
       </c>
       <c r="E61" t="n">
         <v>-1.57</v>
@@ -3515,10 +3775,10 @@
         <v>2</v>
       </c>
       <c r="C62" t="n">
-        <v>23.53</v>
+        <v>17.91</v>
       </c>
       <c r="D62" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E62" t="n">
         <v>-1.57</v>
@@ -3535,10 +3795,10 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>22.93</v>
+        <v>17.44</v>
       </c>
       <c r="D63" t="n">
-        <v>9</v>
+        <v>6.72</v>
       </c>
       <c r="E63" t="n">
         <v>-1.57</v>
@@ -3555,10 +3815,10 @@
         <v>2</v>
       </c>
       <c r="C64" t="n">
-        <v>22.33</v>
+        <v>17</v>
       </c>
       <c r="D64" t="n">
-        <v>9</v>
+        <v>5.97</v>
       </c>
       <c r="E64" t="n">
         <v>-1.57</v>
@@ -3575,10 +3835,10 @@
         <v>2</v>
       </c>
       <c r="C65" t="n">
-        <v>21.73</v>
+        <v>16.6</v>
       </c>
       <c r="D65" t="n">
-        <v>9</v>
+        <v>5.31</v>
       </c>
       <c r="E65" t="n">
         <v>-1.57</v>
@@ -3595,10 +3855,10 @@
         <v>2</v>
       </c>
       <c r="C66" t="n">
-        <v>21.13</v>
+        <v>16.24</v>
       </c>
       <c r="D66" t="n">
-        <v>9</v>
+        <v>4.72</v>
       </c>
       <c r="E66" t="n">
         <v>-1.57</v>
@@ -3615,10 +3875,10 @@
         <v>2</v>
       </c>
       <c r="C67" t="n">
-        <v>20.53</v>
+        <v>15.93</v>
       </c>
       <c r="D67" t="n">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="E67" t="n">
         <v>-1.57</v>
@@ -3635,10 +3895,10 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>19.93</v>
+        <v>15.65</v>
       </c>
       <c r="D68" t="n">
-        <v>9</v>
+        <v>3.73</v>
       </c>
       <c r="E68" t="n">
         <v>-1.57</v>
@@ -3655,10 +3915,10 @@
         <v>2</v>
       </c>
       <c r="C69" t="n">
-        <v>19.33</v>
+        <v>15.4</v>
       </c>
       <c r="D69" t="n">
-        <v>9</v>
+        <v>3.31</v>
       </c>
       <c r="E69" t="n">
         <v>-1.57</v>
@@ -3675,10 +3935,10 @@
         <v>2</v>
       </c>
       <c r="C70" t="n">
-        <v>18.73</v>
+        <v>15.18</v>
       </c>
       <c r="D70" t="n">
-        <v>9</v>
+        <v>2.95</v>
       </c>
       <c r="E70" t="n">
         <v>-1.57</v>
@@ -3695,10 +3955,10 @@
         <v>2</v>
       </c>
       <c r="C71" t="n">
-        <v>18.13</v>
+        <v>14.98</v>
       </c>
       <c r="D71" t="n">
-        <v>9</v>
+        <v>2.62</v>
       </c>
       <c r="E71" t="n">
         <v>-1.57</v>
@@ -3715,10 +3975,10 @@
         <v>2</v>
       </c>
       <c r="C72" t="n">
-        <v>17.53</v>
+        <v>14.81</v>
       </c>
       <c r="D72" t="n">
-        <v>9</v>
+        <v>2.33</v>
       </c>
       <c r="E72" t="n">
         <v>-1.57</v>
@@ -3735,10 +3995,10 @@
         <v>2</v>
       </c>
       <c r="C73" t="n">
-        <v>16.93</v>
+        <v>14.65</v>
       </c>
       <c r="D73" t="n">
-        <v>9</v>
+        <v>2.07</v>
       </c>
       <c r="E73" t="n">
         <v>-1.57</v>
@@ -3755,10 +4015,10 @@
         <v>2</v>
       </c>
       <c r="C74" t="n">
-        <v>16.33</v>
+        <v>14.51</v>
       </c>
       <c r="D74" t="n">
-        <v>9</v>
+        <v>1.84</v>
       </c>
       <c r="E74" t="n">
         <v>-1.57</v>
@@ -3775,10 +4035,10 @@
         <v>2</v>
       </c>
       <c r="C75" t="n">
-        <v>15.73</v>
+        <v>14.39</v>
       </c>
       <c r="D75" t="n">
-        <v>9</v>
+        <v>1.64</v>
       </c>
       <c r="E75" t="n">
         <v>-1.57</v>
@@ -3795,10 +4055,10 @@
         <v>2</v>
       </c>
       <c r="C76" t="n">
-        <v>15.13</v>
+        <v>14.28</v>
       </c>
       <c r="D76" t="n">
-        <v>9</v>
+        <v>1.45</v>
       </c>
       <c r="E76" t="n">
         <v>-1.57</v>
@@ -3815,10 +4075,10 @@
         <v>2</v>
       </c>
       <c r="C77" t="n">
-        <v>14.53</v>
+        <v>14.19</v>
       </c>
       <c r="D77" t="n">
-        <v>9</v>
+        <v>1.29</v>
       </c>
       <c r="E77" t="n">
         <v>-1.57</v>
@@ -3835,10 +4095,10 @@
         <v>2</v>
       </c>
       <c r="C78" t="n">
-        <v>13.93</v>
+        <v>14.1</v>
       </c>
       <c r="D78" t="n">
-        <v>9</v>
+        <v>1.15</v>
       </c>
       <c r="E78" t="n">
         <v>-1.57</v>
@@ -3855,10 +4115,10 @@
         <v>2</v>
       </c>
       <c r="C79" t="n">
-        <v>13.33</v>
+        <v>14.02</v>
       </c>
       <c r="D79" t="n">
-        <v>9</v>
+        <v>1.02</v>
       </c>
       <c r="E79" t="n">
         <v>-1.57</v>
@@ -3872,16 +4132,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="C80" t="n">
-        <v>12.73</v>
+        <v>13.96</v>
       </c>
       <c r="D80" t="n">
-        <v>9</v>
+        <v>0.91</v>
       </c>
       <c r="E80" t="n">
-        <v>-1.55</v>
+        <v>-1.57</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -3892,16 +4152,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="C81" t="n">
-        <v>12.13</v>
+        <v>13.89</v>
       </c>
       <c r="D81" t="n">
-        <v>9</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>-1.55</v>
+        <v>-1.57</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -3912,16 +4172,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="C82" t="n">
-        <v>11.53</v>
+        <v>13.84</v>
       </c>
       <c r="D82" t="n">
-        <v>9</v>
+        <v>0.72</v>
       </c>
       <c r="E82" t="n">
-        <v>-1.56</v>
+        <v>-1.57</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -3932,16 +4192,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="C83" t="n">
-        <v>10.93</v>
+        <v>13.79</v>
       </c>
       <c r="D83" t="n">
-        <v>9</v>
+        <v>0.64</v>
       </c>
       <c r="E83" t="n">
-        <v>-1.58</v>
+        <v>-1.57</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
@@ -3952,16 +4212,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="C84" t="n">
-        <v>10.34</v>
+        <v>13.75</v>
       </c>
       <c r="D84" t="n">
-        <v>9</v>
+        <v>0.57</v>
       </c>
       <c r="E84" t="n">
-        <v>-1.6</v>
+        <v>-1.57</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -3972,16 +4232,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="C85" t="n">
-        <v>9.74</v>
+        <v>13.71</v>
       </c>
       <c r="D85" t="n">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="E85" t="n">
-        <v>-1.63</v>
+        <v>-1.57</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -3992,16 +4252,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.76</v>
+        <v>2</v>
       </c>
       <c r="C86" t="n">
-        <v>9.16</v>
+        <v>13.68</v>
       </c>
       <c r="D86" t="n">
-        <v>9</v>
+        <v>0.45</v>
       </c>
       <c r="E86" t="n">
-        <v>-1.66</v>
+        <v>-1.57</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
@@ -4012,16 +4272,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="C87" t="n">
-        <v>8.57</v>
+        <v>13.65</v>
       </c>
       <c r="D87" t="n">
-        <v>9</v>
+        <v>0.4</v>
       </c>
       <c r="E87" t="n">
-        <v>-1.7</v>
+        <v>-1.57</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
@@ -4032,16 +4292,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.46</v>
+        <v>2</v>
       </c>
       <c r="C88" t="n">
-        <v>7.99</v>
+        <v>13.62</v>
       </c>
       <c r="D88" t="n">
-        <v>9</v>
+        <v>0.35</v>
       </c>
       <c r="E88" t="n">
-        <v>-1.73</v>
+        <v>-1.57</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
@@ -4052,16 +4312,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.27</v>
+        <v>2</v>
       </c>
       <c r="C89" t="n">
-        <v>7.42</v>
+        <v>13.6</v>
       </c>
       <c r="D89" t="n">
-        <v>9</v>
+        <v>0.31</v>
       </c>
       <c r="E89" t="n">
-        <v>-1.77</v>
+        <v>-1.57</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
@@ -4072,16 +4332,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.06</v>
+        <v>2</v>
       </c>
       <c r="C90" t="n">
-        <v>6.86</v>
+        <v>13.58</v>
       </c>
       <c r="D90" t="n">
-        <v>9</v>
+        <v>0.28</v>
       </c>
       <c r="E90" t="n">
-        <v>-1.81</v>
+        <v>-1.57</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
@@ -4092,18 +4352,278 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.83</v>
+        <v>2</v>
       </c>
       <c r="C91" t="n">
-        <v>6.31</v>
+        <v>13.56</v>
       </c>
       <c r="D91" t="n">
-        <v>9</v>
+        <v>0.25</v>
       </c>
       <c r="E91" t="n">
-        <v>-1.85</v>
+        <v>-1.57</v>
       </c>
       <c r="F91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>2</v>
+      </c>
+      <c r="C92" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>2</v>
+      </c>
+      <c r="C93" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>2</v>
+      </c>
+      <c r="C94" t="n">
+        <v>13.52</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>2</v>
+      </c>
+      <c r="C95" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>2</v>
+      </c>
+      <c r="C96" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="C97" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="C98" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-1.58</v>
+      </c>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="C99" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-1.59</v>
+      </c>
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="C100" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="C101" t="n">
+        <v>13.31</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-1.59</v>
+      </c>
+      <c r="F101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="C102" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D102" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-1.58</v>
+      </c>
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>2</v>
+      </c>
+      <c r="C103" t="n">
+        <v>13.06</v>
+      </c>
+      <c r="D103" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="C104" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D104" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-1.56</v>
+      </c>
+      <c r="F104" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4118,7 +4638,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4163,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-55.27</v>
+        <v>-44.34</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
@@ -4183,7 +4703,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-54.61</v>
+        <v>-43.68</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -4203,7 +4723,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-53.96</v>
+        <v>-43.03</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -4223,7 +4743,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-53.31</v>
+        <v>-42.39</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
@@ -4243,7 +4763,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-52.67</v>
+        <v>-41.74</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
@@ -4263,7 +4783,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-52.03</v>
+        <v>-41.11</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -4283,7 +4803,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-51.4</v>
+        <v>-40.47</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -4303,7 +4823,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-50.77</v>
+        <v>-39.84</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
@@ -4323,7 +4843,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-50.14</v>
+        <v>-39.22</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
@@ -4343,7 +4863,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-49.52</v>
+        <v>-38.6</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
@@ -4363,7 +4883,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-48.9</v>
+        <v>-37.97</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
@@ -4383,7 +4903,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-48.28</v>
+        <v>-37.36</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
@@ -4403,7 +4923,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-47.66</v>
+        <v>-36.74</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
@@ -4423,7 +4943,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-47.05</v>
+        <v>-36.13</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
@@ -4443,7 +4963,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-46.44</v>
+        <v>-35.51</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
@@ -4463,7 +4983,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-45.83</v>
+        <v>-34.9</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
@@ -4483,7 +5003,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-45.22</v>
+        <v>-34.29</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
@@ -4503,7 +5023,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-44.61</v>
+        <v>-33.68</v>
       </c>
       <c r="C19" t="n">
         <v>2</v>
@@ -4523,7 +5043,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-44</v>
+        <v>-33.07</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
@@ -4543,7 +5063,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-43.39</v>
+        <v>-32.47</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
@@ -4563,7 +5083,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-42.79</v>
+        <v>-31.86</v>
       </c>
       <c r="C22" t="n">
         <v>2</v>
@@ -4583,7 +5103,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-42.18</v>
+        <v>-31.26</v>
       </c>
       <c r="C23" t="n">
         <v>2</v>
@@ -4603,7 +5123,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-41.57</v>
+        <v>-30.65</v>
       </c>
       <c r="C24" t="n">
         <v>2</v>
@@ -4623,7 +5143,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-40.97</v>
+        <v>-30.05</v>
       </c>
       <c r="C25" t="n">
         <v>2</v>
@@ -4643,7 +5163,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-40.37</v>
+        <v>-29.44</v>
       </c>
       <c r="C26" t="n">
         <v>2</v>
@@ -4663,7 +5183,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-39.76</v>
+        <v>-28.84</v>
       </c>
       <c r="C27" t="n">
         <v>2</v>
@@ -4683,7 +5203,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-39.16</v>
+        <v>-28.24</v>
       </c>
       <c r="C28" t="n">
         <v>2</v>
@@ -4703,7 +5223,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-38.56</v>
+        <v>-27.63</v>
       </c>
       <c r="C29" t="n">
         <v>2</v>
@@ -4723,7 +5243,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-37.95</v>
+        <v>-27.03</v>
       </c>
       <c r="C30" t="n">
         <v>2</v>
@@ -4743,7 +5263,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-37.35</v>
+        <v>-26.43</v>
       </c>
       <c r="C31" t="n">
         <v>2</v>
@@ -4763,7 +5283,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-36.75</v>
+        <v>-25.83</v>
       </c>
       <c r="C32" t="n">
         <v>2</v>
@@ -4783,7 +5303,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-36.15</v>
+        <v>-25.22</v>
       </c>
       <c r="C33" t="n">
         <v>2</v>
@@ -4803,7 +5323,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-35.55</v>
+        <v>-24.62</v>
       </c>
       <c r="C34" t="n">
         <v>2</v>
@@ -4823,7 +5343,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-34.95</v>
+        <v>-24.02</v>
       </c>
       <c r="C35" t="n">
         <v>2</v>
@@ -4843,7 +5363,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-34.34</v>
+        <v>-23.42</v>
       </c>
       <c r="C36" t="n">
         <v>2</v>
@@ -4863,7 +5383,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-33.74</v>
+        <v>-22.82</v>
       </c>
       <c r="C37" t="n">
         <v>2</v>
@@ -4883,7 +5403,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-33.14</v>
+        <v>-22.22</v>
       </c>
       <c r="C38" t="n">
         <v>2</v>
@@ -4903,7 +5423,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-32.54</v>
+        <v>-21.62</v>
       </c>
       <c r="C39" t="n">
         <v>2</v>
@@ -4923,7 +5443,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-31.94</v>
+        <v>-21.02</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
@@ -4943,7 +5463,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-31.34</v>
+        <v>-20.42</v>
       </c>
       <c r="C41" t="n">
         <v>2</v>
@@ -4963,13 +5483,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-30.74</v>
+        <v>-19.82</v>
       </c>
       <c r="C42" t="n">
         <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>9.01</v>
+        <v>8.51</v>
       </c>
       <c r="E42" t="n">
         <v>-0</v>
@@ -4983,13 +5503,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-30.14</v>
+        <v>-19.25</v>
       </c>
       <c r="C43" t="n">
         <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>9.01</v>
+        <v>8.06</v>
       </c>
       <c r="E43" t="n">
         <v>-0</v>
@@ -5003,13 +5523,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-29.54</v>
+        <v>-18.71</v>
       </c>
       <c r="C44" t="n">
         <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>9.01</v>
+        <v>7.67</v>
       </c>
       <c r="E44" t="n">
         <v>-0</v>
@@ -5023,13 +5543,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-28.94</v>
+        <v>-18.2</v>
       </c>
       <c r="C45" t="n">
         <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>9.01</v>
+        <v>7.31</v>
       </c>
       <c r="E45" t="n">
         <v>-0</v>
@@ -5043,13 +5563,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-28.34</v>
+        <v>-17.71</v>
       </c>
       <c r="C46" t="n">
         <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E46" t="n">
         <v>-0</v>
@@ -5063,13 +5583,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-27.74</v>
+        <v>-17.25</v>
       </c>
       <c r="C47" t="n">
         <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>9</v>
+        <v>6.72</v>
       </c>
       <c r="E47" t="n">
         <v>-0</v>
@@ -5083,13 +5603,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-27.14</v>
+        <v>-16.8</v>
       </c>
       <c r="C48" t="n">
         <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>9</v>
+        <v>5.98</v>
       </c>
       <c r="E48" t="n">
         <v>-0</v>
@@ -5103,13 +5623,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-26.54</v>
+        <v>-16.4</v>
       </c>
       <c r="C49" t="n">
         <v>2</v>
       </c>
       <c r="D49" t="n">
-        <v>9</v>
+        <v>5.31</v>
       </c>
       <c r="E49" t="n">
         <v>-0</v>
@@ -5123,13 +5643,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-25.94</v>
+        <v>-16.04</v>
       </c>
       <c r="C50" t="n">
         <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>9</v>
+        <v>4.72</v>
       </c>
       <c r="E50" t="n">
         <v>-0</v>
@@ -5143,13 +5663,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-25.34</v>
+        <v>-15.73</v>
       </c>
       <c r="C51" t="n">
         <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>9</v>
+        <v>4.2</v>
       </c>
       <c r="E51" t="n">
         <v>-0</v>
@@ -5163,13 +5683,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-24.74</v>
+        <v>-15.45</v>
       </c>
       <c r="C52" t="n">
         <v>2</v>
       </c>
       <c r="D52" t="n">
-        <v>9</v>
+        <v>3.73</v>
       </c>
       <c r="E52" t="n">
         <v>-0</v>
@@ -5183,13 +5703,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-24.14</v>
+        <v>-15.2</v>
       </c>
       <c r="C53" t="n">
         <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>9</v>
+        <v>3.32</v>
       </c>
       <c r="E53" t="n">
         <v>-0</v>
@@ -5203,13 +5723,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-23.54</v>
+        <v>-14.98</v>
       </c>
       <c r="C54" t="n">
         <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>9</v>
+        <v>2.95</v>
       </c>
       <c r="E54" t="n">
         <v>-0</v>
@@ -5223,13 +5743,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-22.94</v>
+        <v>-14.78</v>
       </c>
       <c r="C55" t="n">
         <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>9</v>
+        <v>2.62</v>
       </c>
       <c r="E55" t="n">
         <v>-0</v>
@@ -5243,13 +5763,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-22.34</v>
+        <v>-14.61</v>
       </c>
       <c r="C56" t="n">
         <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>9</v>
+        <v>2.33</v>
       </c>
       <c r="E56" t="n">
         <v>-0</v>
@@ -5263,13 +5783,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-21.74</v>
+        <v>-14.45</v>
       </c>
       <c r="C57" t="n">
         <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>9</v>
+        <v>2.07</v>
       </c>
       <c r="E57" t="n">
         <v>-0</v>
@@ -5283,13 +5803,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-21.14</v>
+        <v>-14.32</v>
       </c>
       <c r="C58" t="n">
         <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>9</v>
+        <v>1.84</v>
       </c>
       <c r="E58" t="n">
         <v>-0</v>
@@ -5303,13 +5823,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-20.54</v>
+        <v>-14.19</v>
       </c>
       <c r="C59" t="n">
         <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>9</v>
+        <v>1.64</v>
       </c>
       <c r="E59" t="n">
         <v>-0</v>
@@ -5323,13 +5843,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-19.94</v>
+        <v>-14.08</v>
       </c>
       <c r="C60" t="n">
         <v>2</v>
       </c>
       <c r="D60" t="n">
-        <v>9</v>
+        <v>1.45</v>
       </c>
       <c r="E60" t="n">
         <v>-0</v>
@@ -5343,13 +5863,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-19.33</v>
+        <v>-13.99</v>
       </c>
       <c r="C61" t="n">
         <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>9</v>
+        <v>1.29</v>
       </c>
       <c r="E61" t="n">
         <v>-0</v>
@@ -5363,13 +5883,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-18.73</v>
+        <v>-13.9</v>
       </c>
       <c r="C62" t="n">
         <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>9</v>
+        <v>1.15</v>
       </c>
       <c r="E62" t="n">
         <v>-0</v>
@@ -5383,13 +5903,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-18.13</v>
+        <v>-13.82</v>
       </c>
       <c r="C63" t="n">
         <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>9</v>
+        <v>1.02</v>
       </c>
       <c r="E63" t="n">
         <v>-0</v>
@@ -5403,13 +5923,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-17.53</v>
+        <v>-13.76</v>
       </c>
       <c r="C64" t="n">
         <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>9</v>
+        <v>0.91</v>
       </c>
       <c r="E64" t="n">
         <v>-0</v>
@@ -5423,13 +5943,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-16.93</v>
+        <v>-13.69</v>
       </c>
       <c r="C65" t="n">
         <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>9</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E65" t="n">
         <v>-0</v>
@@ -5443,13 +5963,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-16.33</v>
+        <v>-13.64</v>
       </c>
       <c r="C66" t="n">
         <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>9</v>
+        <v>0.72</v>
       </c>
       <c r="E66" t="n">
         <v>-0</v>
@@ -5463,13 +5983,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-15.73</v>
+        <v>-13.59</v>
       </c>
       <c r="C67" t="n">
         <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>9</v>
+        <v>0.64</v>
       </c>
       <c r="E67" t="n">
         <v>-0</v>
@@ -5483,13 +6003,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-15.13</v>
+        <v>-13.55</v>
       </c>
       <c r="C68" t="n">
         <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>9</v>
+        <v>0.57</v>
       </c>
       <c r="E68" t="n">
         <v>-0</v>
@@ -5503,13 +6023,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-14.53</v>
+        <v>-13.51</v>
       </c>
       <c r="C69" t="n">
         <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="E69" t="n">
         <v>-0</v>
@@ -5523,13 +6043,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-13.93</v>
+        <v>-13.48</v>
       </c>
       <c r="C70" t="n">
         <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>9</v>
+        <v>0.45</v>
       </c>
       <c r="E70" t="n">
         <v>-0</v>
@@ -5543,16 +6063,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-13.33</v>
+        <v>-13.46</v>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="D71" t="n">
-        <v>9</v>
+        <v>0.9</v>
       </c>
       <c r="E71" t="n">
-        <v>-0</v>
+        <v>-0.01</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
@@ -5563,16 +6083,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-12.74</v>
+        <v>-13.41</v>
       </c>
       <c r="C72" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="D72" t="n">
-        <v>9</v>
+        <v>1.3</v>
       </c>
       <c r="E72" t="n">
-        <v>0.02</v>
+        <v>-0.02</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
@@ -5583,16 +6103,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-12.14</v>
+        <v>-13.33</v>
       </c>
       <c r="C73" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="D73" t="n">
-        <v>9</v>
+        <v>1.65</v>
       </c>
       <c r="E73" t="n">
-        <v>0.03</v>
+        <v>-0.03</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -5603,16 +6123,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-11.54</v>
+        <v>-13.23</v>
       </c>
       <c r="C74" t="n">
-        <v>2.07</v>
+        <v>1.97</v>
       </c>
       <c r="D74" t="n">
-        <v>9</v>
+        <v>1.97</v>
       </c>
       <c r="E74" t="n">
-        <v>0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
@@ -5623,13 +6143,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-10.94</v>
+        <v>-13.1</v>
       </c>
       <c r="C75" t="n">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="D75" t="n">
-        <v>9</v>
+        <v>2.25</v>
       </c>
       <c r="E75" t="n">
         <v>-0</v>
@@ -5643,16 +6163,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-10.34</v>
+        <v>-12.95</v>
       </c>
       <c r="C76" t="n">
-        <v>1.96</v>
+        <v>2.01</v>
       </c>
       <c r="D76" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -5663,16 +6183,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-9.75</v>
+        <v>-12.75</v>
       </c>
       <c r="C77" t="n">
-        <v>1.87</v>
+        <v>2.04</v>
       </c>
       <c r="D77" t="n">
-        <v>9</v>
+        <v>3.67</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.06</v>
+        <v>0.02</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -5683,16 +6203,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-9.16</v>
+        <v>-12.51</v>
       </c>
       <c r="C78" t="n">
-        <v>1.76</v>
+        <v>2.06</v>
       </c>
       <c r="D78" t="n">
-        <v>9</v>
+        <v>4.26</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.09</v>
+        <v>0.02</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
@@ -5703,16 +6223,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-8.58</v>
+        <v>-12.22</v>
       </c>
       <c r="C79" t="n">
-        <v>1.62</v>
+        <v>2.07</v>
       </c>
       <c r="D79" t="n">
-        <v>9</v>
+        <v>4.79</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.12</v>
+        <v>0.02</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
@@ -5723,16 +6243,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-8</v>
+        <v>-11.9</v>
       </c>
       <c r="C80" t="n">
-        <v>1.46</v>
+        <v>2.06</v>
       </c>
       <c r="D80" t="n">
-        <v>9</v>
+        <v>5.25</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.16</v>
+        <v>0.02</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -5743,16 +6263,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-7.43</v>
+        <v>-11.55</v>
       </c>
       <c r="C81" t="n">
-        <v>1.27</v>
+        <v>2.05</v>
       </c>
       <c r="D81" t="n">
-        <v>9</v>
+        <v>5.67</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.2</v>
+        <v>0.01</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -5763,16 +6283,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-6.87</v>
+        <v>-11.17</v>
       </c>
       <c r="C82" t="n">
-        <v>1.06</v>
+        <v>2.03</v>
       </c>
       <c r="D82" t="n">
-        <v>9</v>
+        <v>6.04</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.24</v>
+        <v>0</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -5783,16 +6303,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-6.31</v>
+        <v>-10.77</v>
       </c>
       <c r="C83" t="n">
-        <v>0.83</v>
+        <v>1.99</v>
       </c>
       <c r="D83" t="n">
-        <v>9</v>
+        <v>6.37</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.27</v>
+        <v>-0.01</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
@@ -5803,16 +6323,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-5.77</v>
+        <v>-10.35</v>
       </c>
       <c r="C84" t="n">
-        <v>0.57</v>
+        <v>1.95</v>
       </c>
       <c r="D84" t="n">
-        <v>9</v>
+        <v>6.66</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.31</v>
+        <v>-0.03</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -5823,16 +6343,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-5.24</v>
+        <v>-9.91</v>
       </c>
       <c r="C85" t="n">
-        <v>0.29</v>
+        <v>1.88</v>
       </c>
       <c r="D85" t="n">
-        <v>9</v>
+        <v>6.92</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.36</v>
+        <v>-0.05</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -5843,16 +6363,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-4.72</v>
+        <v>-9.460000000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.01</v>
+        <v>1.8</v>
       </c>
       <c r="D86" t="n">
-        <v>9</v>
+        <v>7.15</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.4</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
@@ -5863,16 +6383,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-4.22</v>
+        <v>-8.99</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.34</v>
+        <v>1.7</v>
       </c>
       <c r="D87" t="n">
-        <v>9</v>
+        <v>7.36</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.44</v>
+        <v>-0.1</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
@@ -5883,16 +6403,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-3.73</v>
+        <v>-8.51</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.6899999999999999</v>
+        <v>1.59</v>
       </c>
       <c r="D88" t="n">
-        <v>9</v>
+        <v>7.54</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.48</v>
+        <v>-0.13</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
@@ -5903,16 +6423,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-3.26</v>
+        <v>-8.029999999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>-1.06</v>
+        <v>1.45</v>
       </c>
       <c r="D89" t="n">
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="E89" t="n">
-        <v>-0.53</v>
+        <v>-0.16</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
@@ -5923,16 +6443,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-2.8</v>
+        <v>-7.54</v>
       </c>
       <c r="C90" t="n">
-        <v>-1.45</v>
+        <v>1.29</v>
       </c>
       <c r="D90" t="n">
-        <v>9</v>
+        <v>7.85</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.57</v>
+        <v>-0.19</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
@@ -5943,18 +6463,278 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-2.37</v>
+        <v>-7.05</v>
       </c>
       <c r="C91" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="D91" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="F91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-6.56</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D92" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-6.06</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D93" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-5.57</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D94" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-5.09</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="D95" t="n">
+        <v>8.359999999999999</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-4.61</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="D96" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-4.14</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="D97" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-3.68</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-0.73</v>
+      </c>
+      <c r="D98" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-3.23</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-1.09</v>
+      </c>
+      <c r="D99" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-1.46</v>
+      </c>
+      <c r="D100" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-2.38</v>
+      </c>
+      <c r="C101" t="n">
         <v>-1.86</v>
       </c>
-      <c r="D91" t="n">
-        <v>9</v>
-      </c>
-      <c r="E91" t="n">
+      <c r="D101" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="E101" t="n">
         <v>-0.61</v>
       </c>
-      <c r="F91" t="b">
+      <c r="F101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-1.97</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-2.27</v>
+      </c>
+      <c r="D102" t="n">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-1.59</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="D103" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-1.18</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-3.11</v>
+      </c>
+      <c r="D104" t="n">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-0.74</v>
+      </c>
+      <c r="F104" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5969,7 +6749,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6017,7 +6797,7 @@
         <v>-2</v>
       </c>
       <c r="C2" t="n">
-        <v>-53.86</v>
+        <v>-40.42</v>
       </c>
       <c r="D2" t="n">
         <v>9.890000000000001</v>
@@ -6037,7 +6817,7 @@
         <v>-2</v>
       </c>
       <c r="C3" t="n">
-        <v>-53.2</v>
+        <v>-39.76</v>
       </c>
       <c r="D3" t="n">
         <v>9.789999999999999</v>
@@ -6057,7 +6837,7 @@
         <v>-2</v>
       </c>
       <c r="C4" t="n">
-        <v>-52.55</v>
+        <v>-39.11</v>
       </c>
       <c r="D4" t="n">
         <v>9.699999999999999</v>
@@ -6077,7 +6857,7 @@
         <v>-2</v>
       </c>
       <c r="C5" t="n">
-        <v>-51.9</v>
+        <v>-38.46</v>
       </c>
       <c r="D5" t="n">
         <v>9.619999999999999</v>
@@ -6097,7 +6877,7 @@
         <v>-2</v>
       </c>
       <c r="C6" t="n">
-        <v>-51.26</v>
+        <v>-37.82</v>
       </c>
       <c r="D6" t="n">
         <v>9.550000000000001</v>
@@ -6117,7 +6897,7 @@
         <v>-2</v>
       </c>
       <c r="C7" t="n">
-        <v>-50.62</v>
+        <v>-37.18</v>
       </c>
       <c r="D7" t="n">
         <v>9.49</v>
@@ -6137,7 +6917,7 @@
         <v>-2</v>
       </c>
       <c r="C8" t="n">
-        <v>-49.99</v>
+        <v>-36.55</v>
       </c>
       <c r="D8" t="n">
         <v>9.44</v>
@@ -6157,7 +6937,7 @@
         <v>-2</v>
       </c>
       <c r="C9" t="n">
-        <v>-49.36</v>
+        <v>-35.92</v>
       </c>
       <c r="D9" t="n">
         <v>9.390000000000001</v>
@@ -6177,7 +6957,7 @@
         <v>-2</v>
       </c>
       <c r="C10" t="n">
-        <v>-48.74</v>
+        <v>-35.29</v>
       </c>
       <c r="D10" t="n">
         <v>9.35</v>
@@ -6197,7 +6977,7 @@
         <v>-2</v>
       </c>
       <c r="C11" t="n">
-        <v>-48.11</v>
+        <v>-34.67</v>
       </c>
       <c r="D11" t="n">
         <v>9.31</v>
@@ -6217,7 +6997,7 @@
         <v>-2</v>
       </c>
       <c r="C12" t="n">
-        <v>-47.49</v>
+        <v>-34.05</v>
       </c>
       <c r="D12" t="n">
         <v>9.27</v>
@@ -6237,7 +7017,7 @@
         <v>-2</v>
       </c>
       <c r="C13" t="n">
-        <v>-46.87</v>
+        <v>-33.43</v>
       </c>
       <c r="D13" t="n">
         <v>9.24</v>
@@ -6257,7 +7037,7 @@
         <v>-2</v>
       </c>
       <c r="C14" t="n">
-        <v>-46.26</v>
+        <v>-32.81</v>
       </c>
       <c r="D14" t="n">
         <v>9.220000000000001</v>
@@ -6277,7 +7057,7 @@
         <v>-2</v>
       </c>
       <c r="C15" t="n">
-        <v>-45.64</v>
+        <v>-32.2</v>
       </c>
       <c r="D15" t="n">
         <v>9.19</v>
@@ -6297,7 +7077,7 @@
         <v>-2</v>
       </c>
       <c r="C16" t="n">
-        <v>-45.03</v>
+        <v>-31.59</v>
       </c>
       <c r="D16" t="n">
         <v>9.17</v>
@@ -6317,7 +7097,7 @@
         <v>-2</v>
       </c>
       <c r="C17" t="n">
-        <v>-44.42</v>
+        <v>-30.98</v>
       </c>
       <c r="D17" t="n">
         <v>9.15</v>
@@ -6337,7 +7117,7 @@
         <v>-2</v>
       </c>
       <c r="C18" t="n">
-        <v>-43.81</v>
+        <v>-30.36</v>
       </c>
       <c r="D18" t="n">
         <v>9.140000000000001</v>
@@ -6357,7 +7137,7 @@
         <v>-2</v>
       </c>
       <c r="C19" t="n">
-        <v>-43.2</v>
+        <v>-29.76</v>
       </c>
       <c r="D19" t="n">
         <v>9.119999999999999</v>
@@ -6377,7 +7157,7 @@
         <v>-2</v>
       </c>
       <c r="C20" t="n">
-        <v>-42.59</v>
+        <v>-29.15</v>
       </c>
       <c r="D20" t="n">
         <v>9.109999999999999</v>
@@ -6397,7 +7177,7 @@
         <v>-2</v>
       </c>
       <c r="C21" t="n">
-        <v>-41.99</v>
+        <v>-28.54</v>
       </c>
       <c r="D21" t="n">
         <v>9.09</v>
@@ -6417,7 +7197,7 @@
         <v>-2</v>
       </c>
       <c r="C22" t="n">
-        <v>-41.38</v>
+        <v>-27.93</v>
       </c>
       <c r="D22" t="n">
         <v>9.08</v>
@@ -6437,7 +7217,7 @@
         <v>-2</v>
       </c>
       <c r="C23" t="n">
-        <v>-40.77</v>
+        <v>-27.33</v>
       </c>
       <c r="D23" t="n">
         <v>9.07</v>
@@ -6457,7 +7237,7 @@
         <v>-2</v>
       </c>
       <c r="C24" t="n">
-        <v>-40.17</v>
+        <v>-26.72</v>
       </c>
       <c r="D24" t="n">
         <v>9.07</v>
@@ -6477,7 +7257,7 @@
         <v>-2</v>
       </c>
       <c r="C25" t="n">
-        <v>-39.56</v>
+        <v>-26.12</v>
       </c>
       <c r="D25" t="n">
         <v>9.06</v>
@@ -6497,7 +7277,7 @@
         <v>-2</v>
       </c>
       <c r="C26" t="n">
-        <v>-38.96</v>
+        <v>-25.52</v>
       </c>
       <c r="D26" t="n">
         <v>9.050000000000001</v>
@@ -6517,7 +7297,7 @@
         <v>-2</v>
       </c>
       <c r="C27" t="n">
-        <v>-38.36</v>
+        <v>-24.91</v>
       </c>
       <c r="D27" t="n">
         <v>9.050000000000001</v>
@@ -6537,7 +7317,7 @@
         <v>-2</v>
       </c>
       <c r="C28" t="n">
-        <v>-37.75</v>
+        <v>-24.31</v>
       </c>
       <c r="D28" t="n">
         <v>9.039999999999999</v>
@@ -6557,7 +7337,7 @@
         <v>-2</v>
       </c>
       <c r="C29" t="n">
-        <v>-37.15</v>
+        <v>-23.71</v>
       </c>
       <c r="D29" t="n">
         <v>9.039999999999999</v>
@@ -6577,7 +7357,7 @@
         <v>-2</v>
       </c>
       <c r="C30" t="n">
-        <v>-36.55</v>
+        <v>-23.1</v>
       </c>
       <c r="D30" t="n">
         <v>9.029999999999999</v>
@@ -6597,7 +7377,7 @@
         <v>-2</v>
       </c>
       <c r="C31" t="n">
-        <v>-35.95</v>
+        <v>-22.5</v>
       </c>
       <c r="D31" t="n">
         <v>9.029999999999999</v>
@@ -6617,7 +7397,7 @@
         <v>-2</v>
       </c>
       <c r="C32" t="n">
-        <v>-35.34</v>
+        <v>-21.9</v>
       </c>
       <c r="D32" t="n">
         <v>9.029999999999999</v>
@@ -6637,7 +7417,7 @@
         <v>-2</v>
       </c>
       <c r="C33" t="n">
-        <v>-34.74</v>
+        <v>-21.3</v>
       </c>
       <c r="D33" t="n">
         <v>9.02</v>
@@ -6657,7 +7437,7 @@
         <v>-2</v>
       </c>
       <c r="C34" t="n">
-        <v>-34.14</v>
+        <v>-20.7</v>
       </c>
       <c r="D34" t="n">
         <v>9.02</v>
@@ -6677,10 +7457,10 @@
         <v>-2</v>
       </c>
       <c r="C35" t="n">
-        <v>-33.54</v>
+        <v>-20.09</v>
       </c>
       <c r="D35" t="n">
-        <v>9.02</v>
+        <v>8.52</v>
       </c>
       <c r="E35" t="n">
         <v>1.57</v>
@@ -6697,10 +7477,10 @@
         <v>-2</v>
       </c>
       <c r="C36" t="n">
-        <v>-32.94</v>
+        <v>-19.53</v>
       </c>
       <c r="D36" t="n">
-        <v>9.02</v>
+        <v>8.07</v>
       </c>
       <c r="E36" t="n">
         <v>1.57</v>
@@ -6717,10 +7497,10 @@
         <v>-2</v>
       </c>
       <c r="C37" t="n">
-        <v>-32.34</v>
+        <v>-18.99</v>
       </c>
       <c r="D37" t="n">
-        <v>9.01</v>
+        <v>7.67</v>
       </c>
       <c r="E37" t="n">
         <v>1.57</v>
@@ -6737,10 +7517,10 @@
         <v>-2</v>
       </c>
       <c r="C38" t="n">
-        <v>-31.74</v>
+        <v>-18.48</v>
       </c>
       <c r="D38" t="n">
-        <v>9.01</v>
+        <v>7.32</v>
       </c>
       <c r="E38" t="n">
         <v>1.57</v>
@@ -6757,10 +7537,10 @@
         <v>-2</v>
       </c>
       <c r="C39" t="n">
-        <v>-31.14</v>
+        <v>-17.99</v>
       </c>
       <c r="D39" t="n">
-        <v>9.01</v>
+        <v>7.01</v>
       </c>
       <c r="E39" t="n">
         <v>1.57</v>
@@ -6777,10 +7557,10 @@
         <v>-2</v>
       </c>
       <c r="C40" t="n">
-        <v>-30.53</v>
+        <v>-17.52</v>
       </c>
       <c r="D40" t="n">
-        <v>9.01</v>
+        <v>6.73</v>
       </c>
       <c r="E40" t="n">
         <v>1.57</v>
@@ -6797,10 +7577,10 @@
         <v>-2</v>
       </c>
       <c r="C41" t="n">
-        <v>-29.93</v>
+        <v>-17.07</v>
       </c>
       <c r="D41" t="n">
-        <v>9.01</v>
+        <v>5.98</v>
       </c>
       <c r="E41" t="n">
         <v>1.57</v>
@@ -6817,10 +7597,10 @@
         <v>-2</v>
       </c>
       <c r="C42" t="n">
-        <v>-29.33</v>
+        <v>-16.67</v>
       </c>
       <c r="D42" t="n">
-        <v>9.01</v>
+        <v>5.32</v>
       </c>
       <c r="E42" t="n">
         <v>1.57</v>
@@ -6837,10 +7617,10 @@
         <v>-2</v>
       </c>
       <c r="C43" t="n">
-        <v>-28.73</v>
+        <v>-16.32</v>
       </c>
       <c r="D43" t="n">
-        <v>9.01</v>
+        <v>4.73</v>
       </c>
       <c r="E43" t="n">
         <v>1.57</v>
@@ -6857,10 +7637,10 @@
         <v>-2</v>
       </c>
       <c r="C44" t="n">
-        <v>-28.13</v>
+        <v>-16</v>
       </c>
       <c r="D44" t="n">
-        <v>9.01</v>
+        <v>4.2</v>
       </c>
       <c r="E44" t="n">
         <v>1.57</v>
@@ -6877,10 +7657,10 @@
         <v>-2</v>
       </c>
       <c r="C45" t="n">
-        <v>-27.53</v>
+        <v>-15.72</v>
       </c>
       <c r="D45" t="n">
-        <v>9.01</v>
+        <v>3.73</v>
       </c>
       <c r="E45" t="n">
         <v>1.57</v>
@@ -6897,10 +7677,10 @@
         <v>-2</v>
       </c>
       <c r="C46" t="n">
-        <v>-26.93</v>
+        <v>-15.48</v>
       </c>
       <c r="D46" t="n">
-        <v>9</v>
+        <v>3.32</v>
       </c>
       <c r="E46" t="n">
         <v>1.57</v>
@@ -6917,10 +7697,10 @@
         <v>-2</v>
       </c>
       <c r="C47" t="n">
-        <v>-26.33</v>
+        <v>-15.25</v>
       </c>
       <c r="D47" t="n">
-        <v>9</v>
+        <v>2.95</v>
       </c>
       <c r="E47" t="n">
         <v>1.57</v>
@@ -6937,10 +7717,10 @@
         <v>-2</v>
       </c>
       <c r="C48" t="n">
-        <v>-25.73</v>
+        <v>-15.06</v>
       </c>
       <c r="D48" t="n">
-        <v>9</v>
+        <v>2.62</v>
       </c>
       <c r="E48" t="n">
         <v>1.57</v>
@@ -6957,10 +7737,10 @@
         <v>-2</v>
       </c>
       <c r="C49" t="n">
-        <v>-25.13</v>
+        <v>-14.88</v>
       </c>
       <c r="D49" t="n">
-        <v>9</v>
+        <v>2.33</v>
       </c>
       <c r="E49" t="n">
         <v>1.57</v>
@@ -6977,10 +7757,10 @@
         <v>-2</v>
       </c>
       <c r="C50" t="n">
-        <v>-24.53</v>
+        <v>-14.73</v>
       </c>
       <c r="D50" t="n">
-        <v>9</v>
+        <v>2.07</v>
       </c>
       <c r="E50" t="n">
         <v>1.57</v>
@@ -6997,10 +7777,10 @@
         <v>-2</v>
       </c>
       <c r="C51" t="n">
-        <v>-23.93</v>
+        <v>-14.59</v>
       </c>
       <c r="D51" t="n">
-        <v>9</v>
+        <v>1.84</v>
       </c>
       <c r="E51" t="n">
         <v>1.57</v>
@@ -7017,10 +7797,10 @@
         <v>-2</v>
       </c>
       <c r="C52" t="n">
-        <v>-23.33</v>
+        <v>-14.47</v>
       </c>
       <c r="D52" t="n">
-        <v>9</v>
+        <v>1.64</v>
       </c>
       <c r="E52" t="n">
         <v>1.57</v>
@@ -7037,10 +7817,10 @@
         <v>-2</v>
       </c>
       <c r="C53" t="n">
-        <v>-22.73</v>
+        <v>-14.36</v>
       </c>
       <c r="D53" t="n">
-        <v>9</v>
+        <v>1.46</v>
       </c>
       <c r="E53" t="n">
         <v>1.57</v>
@@ -7057,10 +7837,10 @@
         <v>-2</v>
       </c>
       <c r="C54" t="n">
-        <v>-22.13</v>
+        <v>-14.26</v>
       </c>
       <c r="D54" t="n">
-        <v>9</v>
+        <v>1.29</v>
       </c>
       <c r="E54" t="n">
         <v>1.57</v>
@@ -7077,10 +7857,10 @@
         <v>-2</v>
       </c>
       <c r="C55" t="n">
-        <v>-21.53</v>
+        <v>-14.17</v>
       </c>
       <c r="D55" t="n">
-        <v>9</v>
+        <v>1.15</v>
       </c>
       <c r="E55" t="n">
         <v>1.57</v>
@@ -7097,10 +7877,10 @@
         <v>-2</v>
       </c>
       <c r="C56" t="n">
-        <v>-20.93</v>
+        <v>-14.1</v>
       </c>
       <c r="D56" t="n">
-        <v>9</v>
+        <v>1.02</v>
       </c>
       <c r="E56" t="n">
         <v>1.57</v>
@@ -7117,10 +7897,10 @@
         <v>-2</v>
       </c>
       <c r="C57" t="n">
-        <v>-20.33</v>
+        <v>-14.03</v>
       </c>
       <c r="D57" t="n">
-        <v>9</v>
+        <v>0.91</v>
       </c>
       <c r="E57" t="n">
         <v>1.57</v>
@@ -7137,10 +7917,10 @@
         <v>-2</v>
       </c>
       <c r="C58" t="n">
-        <v>-19.73</v>
+        <v>-13.97</v>
       </c>
       <c r="D58" t="n">
-        <v>9</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E58" t="n">
         <v>1.57</v>
@@ -7157,10 +7937,10 @@
         <v>-2</v>
       </c>
       <c r="C59" t="n">
-        <v>-19.13</v>
+        <v>-13.91</v>
       </c>
       <c r="D59" t="n">
-        <v>9</v>
+        <v>0.72</v>
       </c>
       <c r="E59" t="n">
         <v>1.57</v>
@@ -7177,10 +7957,10 @@
         <v>-2</v>
       </c>
       <c r="C60" t="n">
-        <v>-18.53</v>
+        <v>-13.87</v>
       </c>
       <c r="D60" t="n">
-        <v>9</v>
+        <v>0.64</v>
       </c>
       <c r="E60" t="n">
         <v>1.57</v>
@@ -7197,10 +7977,10 @@
         <v>-2</v>
       </c>
       <c r="C61" t="n">
-        <v>-17.93</v>
+        <v>-13.82</v>
       </c>
       <c r="D61" t="n">
-        <v>9</v>
+        <v>0.57</v>
       </c>
       <c r="E61" t="n">
         <v>1.57</v>
@@ -7217,10 +7997,10 @@
         <v>-2</v>
       </c>
       <c r="C62" t="n">
-        <v>-17.33</v>
+        <v>-13.79</v>
       </c>
       <c r="D62" t="n">
-        <v>9</v>
+        <v>0.5</v>
       </c>
       <c r="E62" t="n">
         <v>1.57</v>
@@ -7237,10 +8017,10 @@
         <v>-2</v>
       </c>
       <c r="C63" t="n">
-        <v>-16.73</v>
+        <v>-13.75</v>
       </c>
       <c r="D63" t="n">
-        <v>9</v>
+        <v>0.45</v>
       </c>
       <c r="E63" t="n">
         <v>1.57</v>
@@ -7257,10 +8037,10 @@
         <v>-2</v>
       </c>
       <c r="C64" t="n">
-        <v>-16.13</v>
+        <v>-13.72</v>
       </c>
       <c r="D64" t="n">
-        <v>9</v>
+        <v>0.4</v>
       </c>
       <c r="E64" t="n">
         <v>1.57</v>
@@ -7277,10 +8057,10 @@
         <v>-2</v>
       </c>
       <c r="C65" t="n">
-        <v>-15.53</v>
+        <v>-13.7</v>
       </c>
       <c r="D65" t="n">
-        <v>9</v>
+        <v>0.35</v>
       </c>
       <c r="E65" t="n">
         <v>1.57</v>
@@ -7297,10 +8077,10 @@
         <v>-2</v>
       </c>
       <c r="C66" t="n">
-        <v>-14.93</v>
+        <v>-13.67</v>
       </c>
       <c r="D66" t="n">
-        <v>9</v>
+        <v>0.31</v>
       </c>
       <c r="E66" t="n">
         <v>1.57</v>
@@ -7317,10 +8097,10 @@
         <v>-2</v>
       </c>
       <c r="C67" t="n">
-        <v>-14.33</v>
+        <v>-13.65</v>
       </c>
       <c r="D67" t="n">
-        <v>9</v>
+        <v>0.28</v>
       </c>
       <c r="E67" t="n">
         <v>1.57</v>
@@ -7337,10 +8117,10 @@
         <v>-2</v>
       </c>
       <c r="C68" t="n">
-        <v>-13.73</v>
+        <v>-13.63</v>
       </c>
       <c r="D68" t="n">
-        <v>9</v>
+        <v>0.25</v>
       </c>
       <c r="E68" t="n">
         <v>1.57</v>
@@ -7357,10 +8137,10 @@
         <v>-2</v>
       </c>
       <c r="C69" t="n">
-        <v>-13.13</v>
+        <v>-13.62</v>
       </c>
       <c r="D69" t="n">
-        <v>9</v>
+        <v>0.22</v>
       </c>
       <c r="E69" t="n">
         <v>1.57</v>
@@ -7374,16 +8154,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-2.05</v>
+        <v>-2</v>
       </c>
       <c r="C70" t="n">
-        <v>-12.53</v>
+        <v>-13.6</v>
       </c>
       <c r="D70" t="n">
-        <v>9</v>
+        <v>0.2</v>
       </c>
       <c r="E70" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
@@ -7394,16 +8174,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-2.06</v>
+        <v>-2</v>
       </c>
       <c r="C71" t="n">
-        <v>-11.93</v>
+        <v>-13.59</v>
       </c>
       <c r="D71" t="n">
-        <v>9</v>
+        <v>0.17</v>
       </c>
       <c r="E71" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
@@ -7414,16 +8194,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-2.05</v>
+        <v>-2</v>
       </c>
       <c r="C72" t="n">
-        <v>-11.33</v>
+        <v>-13.58</v>
       </c>
       <c r="D72" t="n">
-        <v>9</v>
+        <v>0.16</v>
       </c>
       <c r="E72" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
@@ -7437,13 +8217,13 @@
         <v>-2</v>
       </c>
       <c r="C73" t="n">
-        <v>-10.73</v>
+        <v>-13.57</v>
       </c>
       <c r="D73" t="n">
-        <v>9</v>
+        <v>0.14</v>
       </c>
       <c r="E73" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -7454,16 +8234,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-1.93</v>
+        <v>-2</v>
       </c>
       <c r="C74" t="n">
-        <v>-10.14</v>
+        <v>-13.56</v>
       </c>
       <c r="D74" t="n">
-        <v>9</v>
+        <v>0.12</v>
       </c>
       <c r="E74" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
@@ -7474,16 +8254,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-1.83</v>
+        <v>-2</v>
       </c>
       <c r="C75" t="n">
-        <v>-9.550000000000001</v>
+        <v>-13.55</v>
       </c>
       <c r="D75" t="n">
-        <v>9</v>
+        <v>0.11</v>
       </c>
       <c r="E75" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -7494,16 +8274,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-1.71</v>
+        <v>-2</v>
       </c>
       <c r="C76" t="n">
-        <v>-8.960000000000001</v>
+        <v>-13.54</v>
       </c>
       <c r="D76" t="n">
-        <v>9</v>
+        <v>0.1</v>
       </c>
       <c r="E76" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -7514,16 +8294,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-1.56</v>
+        <v>-2</v>
       </c>
       <c r="C77" t="n">
-        <v>-8.380000000000001</v>
+        <v>-13.54</v>
       </c>
       <c r="D77" t="n">
-        <v>9</v>
+        <v>0.09</v>
       </c>
       <c r="E77" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -7534,16 +8314,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-1.39</v>
+        <v>-2</v>
       </c>
       <c r="C78" t="n">
-        <v>-7.8</v>
+        <v>-13.53</v>
       </c>
       <c r="D78" t="n">
-        <v>9</v>
+        <v>0.08</v>
       </c>
       <c r="E78" t="n">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
@@ -7554,16 +8334,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-1.2</v>
+        <v>-2</v>
       </c>
       <c r="C79" t="n">
-        <v>-7.23</v>
+        <v>-13.53</v>
       </c>
       <c r="D79" t="n">
-        <v>9</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E79" t="n">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
@@ -7574,16 +8354,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.98</v>
+        <v>-2</v>
       </c>
       <c r="C80" t="n">
-        <v>-6.67</v>
+        <v>-13.52</v>
       </c>
       <c r="D80" t="n">
-        <v>9</v>
+        <v>0.06</v>
       </c>
       <c r="E80" t="n">
-        <v>1.32</v>
+        <v>1.57</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -7594,16 +8374,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.74</v>
+        <v>-2</v>
       </c>
       <c r="C81" t="n">
-        <v>-6.12</v>
+        <v>-13.52</v>
       </c>
       <c r="D81" t="n">
-        <v>9</v>
+        <v>0.05</v>
       </c>
       <c r="E81" t="n">
-        <v>1.28</v>
+        <v>1.57</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -7614,16 +8394,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.47</v>
+        <v>-2</v>
       </c>
       <c r="C82" t="n">
-        <v>-5.59</v>
+        <v>-13.52</v>
       </c>
       <c r="D82" t="n">
-        <v>9</v>
+        <v>0.05</v>
       </c>
       <c r="E82" t="n">
-        <v>1.24</v>
+        <v>1.57</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -7634,16 +8414,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.19</v>
+        <v>-2</v>
       </c>
       <c r="C83" t="n">
-        <v>-5.06</v>
+        <v>-13.52</v>
       </c>
       <c r="D83" t="n">
-        <v>9</v>
+        <v>0.04</v>
       </c>
       <c r="E83" t="n">
-        <v>1.2</v>
+        <v>1.57</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
@@ -7654,16 +8434,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.13</v>
+        <v>-2</v>
       </c>
       <c r="C84" t="n">
-        <v>-4.55</v>
+        <v>-13.51</v>
       </c>
       <c r="D84" t="n">
-        <v>9</v>
+        <v>0.54</v>
       </c>
       <c r="E84" t="n">
-        <v>1.16</v>
+        <v>1.57</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -7674,16 +8454,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.46</v>
+        <v>-2</v>
       </c>
       <c r="C85" t="n">
-        <v>-4.05</v>
+        <v>-13.48</v>
       </c>
       <c r="D85" t="n">
-        <v>9</v>
+        <v>0.98</v>
       </c>
       <c r="E85" t="n">
-        <v>1.12</v>
+        <v>1.57</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -7694,16 +8474,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.8100000000000001</v>
+        <v>-1.96</v>
       </c>
       <c r="C86" t="n">
-        <v>-3.56</v>
+        <v>-13.43</v>
       </c>
       <c r="D86" t="n">
-        <v>9</v>
+        <v>1.37</v>
       </c>
       <c r="E86" t="n">
-        <v>1.07</v>
+        <v>1.55</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
@@ -7714,16 +8494,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.19</v>
+        <v>-1.93</v>
       </c>
       <c r="C87" t="n">
-        <v>-3.1</v>
+        <v>-13.34</v>
       </c>
       <c r="D87" t="n">
-        <v>9</v>
+        <v>1.72</v>
       </c>
       <c r="E87" t="n">
-        <v>1.03</v>
+        <v>1.54</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
@@ -7734,16 +8514,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.59</v>
+        <v>-1.97</v>
       </c>
       <c r="C88" t="n">
-        <v>-2.65</v>
+        <v>-13.24</v>
       </c>
       <c r="D88" t="n">
-        <v>9</v>
+        <v>2.03</v>
       </c>
       <c r="E88" t="n">
-        <v>0.99</v>
+        <v>1.56</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
@@ -7754,16 +8534,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2.01</v>
+        <v>-2</v>
       </c>
       <c r="C89" t="n">
-        <v>-2.22</v>
+        <v>-13.1</v>
       </c>
       <c r="D89" t="n">
-        <v>9</v>
+        <v>2.3</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.57</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
@@ -7774,16 +8554,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2.44</v>
+        <v>-2.01</v>
       </c>
       <c r="C90" t="n">
-        <v>-1.81</v>
+        <v>-12.95</v>
       </c>
       <c r="D90" t="n">
-        <v>9</v>
+        <v>3.05</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9</v>
+        <v>1.58</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
@@ -7794,18 +8574,278 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>2.87</v>
+        <v>-2.04</v>
       </c>
       <c r="C91" t="n">
-        <v>-1.41</v>
+        <v>-12.75</v>
       </c>
       <c r="D91" t="n">
-        <v>9</v>
+        <v>3.71</v>
       </c>
       <c r="E91" t="n">
-        <v>0.85</v>
+        <v>1.59</v>
       </c>
       <c r="F91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>-2.06</v>
+      </c>
+      <c r="C92" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="D92" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>-2.07</v>
+      </c>
+      <c r="C93" t="n">
+        <v>-12.22</v>
+      </c>
+      <c r="D93" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>-2.07</v>
+      </c>
+      <c r="C94" t="n">
+        <v>-11.9</v>
+      </c>
+      <c r="D94" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>-2.05</v>
+      </c>
+      <c r="C95" t="n">
+        <v>-11.54</v>
+      </c>
+      <c r="D95" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>-2.03</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-11.16</v>
+      </c>
+      <c r="D96" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>-1.99</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-10.76</v>
+      </c>
+      <c r="D97" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>-1.94</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-10.34</v>
+      </c>
+      <c r="D98" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="F98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>-1.88</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-9.9</v>
+      </c>
+      <c r="D99" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-9.44</v>
+      </c>
+      <c r="D100" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-8.98</v>
+      </c>
+      <c r="D101" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="F101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>-1.58</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="D102" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-1.45</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-8.01</v>
+      </c>
+      <c r="D103" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>-1.33</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-7.57</v>
+      </c>
+      <c r="D104" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F104" t="b">
         <v>0</v>
       </c>
     </row>
